--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -21,7 +21,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00000_-;\-&quot;R$&quot;* #,##0.00000_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -32,9 +32,10 @@
     <numFmt numFmtId="171" formatCode="_-&quot;R$&quot;* #,##0.000000_-;\-&quot;R$&quot;* #,##0.000000_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="R$ #,##0.00"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="R$ #,##0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,6 +180,9 @@
       <family val="2"/>
       <sz val="11"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Trebuchet MS"/>
     </font>
   </fonts>
   <fills count="15">
@@ -793,9 +797,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1797,6 +1801,17 @@
     <xf numFmtId="173" fontId="7" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2741,7 +2756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW263"/>
+  <dimension ref="A1:CW287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F236" activePane="bottomRight" state="frozen"/>
@@ -10778,13 +10793,13 @@
         <v/>
       </c>
       <c r="AD28" s="143" t="n">
-        <v>22.47</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="173" t="n">
-        <v>20014.59</v>
+        <v>120996816</v>
       </c>
       <c r="AF28" s="143" t="n">
-        <v>0</v>
+        <v>221630192</v>
       </c>
       <c r="AG28" s="143">
         <f>SUM(AD28:AF28)</f>
@@ -68222,7 +68237,11 @@
     </row>
     <row r="244" ht="19.9" customFormat="1" customHeight="1" s="67">
       <c r="A244" s="139" t="n"/>
-      <c r="B244" s="66" t="n"/>
+      <c r="B244" s="66" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
       <c r="C244" s="139" t="n"/>
       <c r="D244" s="140" t="n"/>
       <c r="E244" s="140" t="n"/>
@@ -68233,30 +68252,99 @@
       <c r="J244" s="144" t="n"/>
       <c r="K244" s="66" t="n"/>
       <c r="L244" s="140" t="n"/>
-      <c r="M244" s="145" t="n"/>
-      <c r="N244" s="145" t="n"/>
-      <c r="O244" s="331" t="n"/>
+      <c r="M244" s="145" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="N244" s="145" t="inlineStr">
+        <is>
+          <t>28/03/2024 a 01/02/2024</t>
+        </is>
+      </c>
+      <c r="O244" s="379" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
       <c r="P244" s="331" t="n"/>
-      <c r="Q244" s="331" t="n"/>
+      <c r="Q244" s="331" t="n">
+        <v>4742.08</v>
+      </c>
       <c r="R244" s="147" t="n"/>
-      <c r="S244" s="331" t="n"/>
+      <c r="S244" s="331" t="n">
+        <v>12.13</v>
+      </c>
       <c r="T244" s="331" t="n"/>
-      <c r="U244" s="331" t="n"/>
+      <c r="U244" s="331" t="n">
+        <v>6.2</v>
+      </c>
       <c r="V244" s="331" t="n"/>
       <c r="W244" s="331" t="n"/>
       <c r="X244" s="331" t="n"/>
       <c r="Y244" s="331" t="n"/>
-      <c r="Z244" s="331" t="n"/>
+      <c r="Z244" s="331" t="n">
+        <v>6877.97</v>
+      </c>
       <c r="AA244" s="331" t="n"/>
-      <c r="AB244" s="332" t="n"/>
-      <c r="AC244" s="332" t="n"/>
+      <c r="AB244" s="332" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC244" s="332" t="n">
+        <v>0.446968</v>
+      </c>
       <c r="AD244" s="186" t="n"/>
       <c r="AE244" s="186" t="n"/>
       <c r="AF244" s="186" t="n"/>
       <c r="AG244" s="186" t="n"/>
       <c r="AH244" s="186" t="n"/>
       <c r="AM244" s="368" t="n"/>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="AR244" s="368" t="n"/>
+      <c r="AS244" t="inlineStr">
+        <is>
+          <t>12700,8</t>
+        </is>
+      </c>
+      <c r="AT244" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="AU244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW244" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AX244" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AY244" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="BA244" s="368" t="n"/>
       <c r="BJ244" s="186" t="n"/>
       <c r="BK244" s="188" t="n"/>
@@ -68298,7 +68386,11 @@
     </row>
     <row r="245" ht="19.9" customFormat="1" customHeight="1" s="67">
       <c r="A245" s="120" t="n"/>
-      <c r="B245" s="65" t="n"/>
+      <c r="B245" s="65" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
       <c r="C245" s="120" t="n"/>
       <c r="D245" s="121" t="n"/>
       <c r="E245" s="121" t="n"/>
@@ -68309,30 +68401,99 @@
       <c r="J245" s="125" t="n"/>
       <c r="K245" s="65" t="n"/>
       <c r="L245" s="121" t="n"/>
-      <c r="M245" s="126" t="n"/>
-      <c r="N245" s="126" t="n"/>
-      <c r="O245" s="321" t="n"/>
+      <c r="M245" s="126" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N245" s="126" t="inlineStr">
+        <is>
+          <t>28/03/2024 a 01/02/2024</t>
+        </is>
+      </c>
+      <c r="O245" s="380" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
       <c r="P245" s="321" t="n"/>
-      <c r="Q245" s="321" t="n"/>
+      <c r="Q245" s="321" t="n">
+        <v>4742.08</v>
+      </c>
       <c r="R245" s="207" t="n"/>
-      <c r="S245" s="321" t="n"/>
+      <c r="S245" s="321" t="n">
+        <v>12.13</v>
+      </c>
       <c r="T245" s="321" t="n"/>
-      <c r="U245" s="321" t="n"/>
+      <c r="U245" s="321" t="n">
+        <v>6.2</v>
+      </c>
       <c r="V245" s="321" t="n"/>
       <c r="W245" s="321" t="n"/>
       <c r="X245" s="321" t="n"/>
       <c r="Y245" s="321" t="n"/>
-      <c r="Z245" s="321" t="n"/>
+      <c r="Z245" s="321" t="n">
+        <v>6877.97</v>
+      </c>
       <c r="AA245" s="321" t="n"/>
-      <c r="AB245" s="322" t="n"/>
-      <c r="AC245" s="322" t="n"/>
+      <c r="AB245" s="322" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC245" s="322" t="n">
+        <v>0.446968</v>
+      </c>
       <c r="AD245" s="186" t="n"/>
       <c r="AE245" s="189" t="n"/>
       <c r="AF245" s="186" t="n"/>
       <c r="AG245" s="186" t="n"/>
       <c r="AH245" s="186" t="n"/>
       <c r="AM245" s="368" t="n"/>
+      <c r="AN245" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AP245" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="AR245" s="368" t="n"/>
+      <c r="AS245" t="inlineStr">
+        <is>
+          <t>12700,8</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="AU245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW245" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AX245" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AY245" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="BA245" s="368" t="n"/>
       <c r="BJ245" s="186" t="n"/>
       <c r="BK245" s="186" t="n"/>
@@ -68374,7 +68535,11 @@
     </row>
     <row r="246" ht="19.9" customFormat="1" customHeight="1" s="67">
       <c r="A246" s="139" t="n"/>
-      <c r="B246" s="66" t="n"/>
+      <c r="B246" s="66" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
       <c r="C246" s="139" t="n"/>
       <c r="D246" s="140" t="n"/>
       <c r="E246" s="140" t="n"/>
@@ -68385,30 +68550,99 @@
       <c r="J246" s="144" t="n"/>
       <c r="K246" s="66" t="n"/>
       <c r="L246" s="140" t="n"/>
-      <c r="M246" s="145" t="n"/>
-      <c r="N246" s="145" t="n"/>
-      <c r="O246" s="331" t="n"/>
+      <c r="M246" s="145" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N246" s="145" t="inlineStr">
+        <is>
+          <t>28/03/2024 a 01/02/2024</t>
+        </is>
+      </c>
+      <c r="O246" s="379" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
       <c r="P246" s="331" t="n"/>
-      <c r="Q246" s="331" t="n"/>
+      <c r="Q246" s="331" t="n">
+        <v>4742.08</v>
+      </c>
       <c r="R246" s="147" t="n"/>
-      <c r="S246" s="331" t="n"/>
+      <c r="S246" s="331" t="n">
+        <v>12.13</v>
+      </c>
       <c r="T246" s="331" t="n"/>
-      <c r="U246" s="331" t="n"/>
+      <c r="U246" s="331" t="n">
+        <v>6.2</v>
+      </c>
       <c r="V246" s="331" t="n"/>
       <c r="W246" s="331" t="n"/>
       <c r="X246" s="331" t="n"/>
       <c r="Y246" s="331" t="n"/>
-      <c r="Z246" s="331" t="n"/>
+      <c r="Z246" s="331" t="n">
+        <v>6877.97</v>
+      </c>
       <c r="AA246" s="331" t="n"/>
-      <c r="AB246" s="332" t="n"/>
-      <c r="AC246" s="332" t="n"/>
+      <c r="AB246" s="332" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC246" s="332" t="n">
+        <v>0.446968</v>
+      </c>
       <c r="AD246" s="186" t="n"/>
       <c r="AE246" s="186" t="n"/>
       <c r="AF246" s="186" t="n"/>
       <c r="AG246" s="186" t="n"/>
       <c r="AH246" s="186" t="n"/>
       <c r="AM246" s="368" t="n"/>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="AR246" s="368" t="n"/>
+      <c r="AS246" t="inlineStr">
+        <is>
+          <t>12700,8</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="AU246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW246" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AX246" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AY246" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="BA246" s="368" t="n"/>
       <c r="BJ246" s="186" t="n"/>
       <c r="BK246" s="186" t="n"/>
@@ -68450,7 +68684,11 @@
     </row>
     <row r="247" ht="19.9" customHeight="1">
       <c r="A247" s="120" t="n"/>
-      <c r="B247" s="65" t="n"/>
+      <c r="B247" s="65" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
       <c r="C247" s="120" t="n"/>
       <c r="D247" s="121" t="n"/>
       <c r="E247" s="121" t="n"/>
@@ -68459,46 +68697,424 @@
       <c r="H247" s="124" t="n"/>
       <c r="I247" s="121" t="n"/>
       <c r="L247" s="121" t="n"/>
-      <c r="M247" s="126" t="n"/>
-      <c r="N247" s="126" t="n"/>
+      <c r="M247" s="126" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N247" s="126" t="inlineStr">
+        <is>
+          <t>28/03/2024 a 01/02/2024</t>
+        </is>
+      </c>
+      <c r="O247" s="381" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4742.08</v>
+      </c>
       <c r="R247" s="207" t="n"/>
-      <c r="S247" s="321" t="n"/>
+      <c r="S247" s="321" t="n">
+        <v>12.13</v>
+      </c>
       <c r="T247" s="321" t="n"/>
-      <c r="U247" s="321" t="n"/>
+      <c r="U247" s="321" t="n">
+        <v>6.2</v>
+      </c>
       <c r="V247" s="321" t="n"/>
       <c r="W247" s="321" t="n"/>
       <c r="X247" s="321" t="n"/>
       <c r="Y247" s="321" t="n"/>
-      <c r="Z247" s="321" t="n"/>
+      <c r="Z247" s="321" t="n">
+        <v>6877.97</v>
+      </c>
       <c r="AA247" s="321" t="n"/>
-      <c r="AB247" s="322" t="n"/>
-      <c r="AC247" s="322" t="n"/>
+      <c r="AB247" s="322" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC247" s="322" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
+      <c r="AS247" t="inlineStr">
+        <is>
+          <t>12700,8</t>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="AU247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t>1987,23</t>
+        </is>
+      </c>
+      <c r="AX247" t="inlineStr">
+        <is>
+          <t>11823,00</t>
+        </is>
+      </c>
+      <c r="AY247" t="inlineStr">
+        <is>
+          <t>1596,00</t>
+        </is>
+      </c>
       <c r="CU247" s="136" t="n"/>
       <c r="CV247" s="136" t="n"/>
     </row>
     <row r="248" ht="19.9" customHeight="1">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
       <c r="H248" s="282" t="n"/>
-      <c r="AB248" s="322" t="n"/>
-      <c r="AC248" s="322" t="n"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O248" s="381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S248" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U248" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB248" s="322" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC248" s="322" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="249" ht="19.9" customHeight="1">
-      <c r="AC249" s="217" t="n"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O249" s="381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S249" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U249" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC249" s="217" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="250" ht="19.9" customHeight="1">
-      <c r="AC250" s="217" t="n"/>
+      <c r="B250" s="382" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S250" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U250" s="381" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC250" s="217" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="251" ht="19.9" customHeight="1">
-      <c r="AC251" s="217" t="n"/>
+      <c r="B251" s="382" t="inlineStr">
+        <is>
+          <t>21040540</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S251" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U251" s="381" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC251" s="217" t="n">
+        <v>0.446968</v>
+      </c>
       <c r="AI251" s="30" t="n"/>
       <c r="AJ251" s="30" t="n"/>
       <c r="AK251" s="30" t="n"/>
+      <c r="AN251" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="252" ht="19.9" customHeight="1">
+      <c r="B252" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U252" s="381" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>6877.97</v>
+      </c>
       <c r="AA252" s="369" t="n"/>
-      <c r="AC252" s="217" t="n"/>
+      <c r="AB252" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC252" s="217" t="n">
+        <v>0.446968</v>
+      </c>
       <c r="AI252" s="217" t="n"/>
       <c r="AJ252" s="217" t="n"/>
       <c r="AK252" s="217" t="n"/>
+      <c r="AN252" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="253" ht="19.9" customHeight="1">
       <c r="G253" s="42" t="inlineStr">
@@ -68541,7 +69157,1490 @@
       <c r="AC262" s="217" t="n"/>
     </row>
     <row r="263" ht="19.9" customHeight="1">
+      <c r="B263" s="383" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C263" s="384" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="D263" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F263" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="G263" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="M263" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N263" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O263" s="384" t="n">
+        <v>0</v>
+      </c>
       <c r="AC263" s="217" t="n"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M264" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N264" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O264" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S264" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U264" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z264" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB264" s="384" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC264" s="384" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN264" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO264" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP264" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW264" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX264" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY264" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M265" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N265" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O265" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S265" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U265" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z265" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB265" s="384" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC265" s="384" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN265" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO265" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP265" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW265" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX265" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY265" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M266" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N266" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O266" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S266" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U266" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z266" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB266" s="384" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC266" s="384" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AN266" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO266" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP266" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW266" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX266" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY266" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M267" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N267" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O267" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S267" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U267" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z267" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB267" s="384" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC267" s="384" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN267" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO267" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP267" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW267" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX267" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY267" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M268" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N268" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O268" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S268" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U268" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z268" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB268" s="384" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC268" s="384" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN268" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO268" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP268" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW268" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX268" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY268" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M269" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N269" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O269" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S269" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U269" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z269" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB269" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC269" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN269" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO269" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP269" s="384" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW269" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX269" s="384" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY269" s="384" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="382" t="n">
+        <v>10011741021</v>
+      </c>
+      <c r="M270" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N270" s="382" t="inlineStr">
+        <is>
+          <t>16/02/2024 a 18/03/2024</t>
+        </is>
+      </c>
+      <c r="O270" s="384" t="n">
+        <v>919.76</v>
+      </c>
+      <c r="Q270" s="384" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="U270" s="384" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Z270" s="384" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="AB270" s="387" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AC270" s="387" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AO270" s="385" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1667</v>
+      </c>
+      <c r="AX270" s="384" t="n">
+        <v>1333.6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="382" t="n">
+        <v>10011741021</v>
+      </c>
+      <c r="M271" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N271" s="382" t="inlineStr">
+        <is>
+          <t>16/02/2024 a 18/03/2024</t>
+        </is>
+      </c>
+      <c r="O271" s="384" t="n">
+        <v>919.76</v>
+      </c>
+      <c r="U271" s="384" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Z271" s="384" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="AB271" s="387" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AC271" s="387" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AO271" s="385" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1667</v>
+      </c>
+      <c r="AX271" s="384" t="n">
+        <v>1333.6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M272" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N272" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O272" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S272" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U272" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z272" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB272" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC272" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN272" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO272" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP272" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW272" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX272" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY272" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M273" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N273" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O273" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S273" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U273" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z273" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB273" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC273" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN273" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO273" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP273" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW273" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX273" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY273" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M274" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N274" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O274" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S274" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U274" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z274" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB274" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC274" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN274" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO274" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP274" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW274" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX274" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY274" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M275" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N275" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O275" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S275" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U275" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z275" s="384" t="n">
+        <v>6877.97</v>
+      </c>
+      <c r="AB275" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC275" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN275" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO275" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP275" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW275" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX275" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY275" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M276" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N276" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O276" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q276" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S276" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U276" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z276" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB276" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC276" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN276" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO276" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP276" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.992378</v>
+      </c>
+      <c r="AW276" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX276" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY276" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M277" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N277" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O277" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q277" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S277" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U277" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z277" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB277" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC277" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN277" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO277" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP277" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW277" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX277" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY277" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M278" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N278" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O278" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q278" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S278" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U278" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z278" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB278" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC278" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN278" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO278" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP278" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW278" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX278" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY278" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M279" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N279" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O279" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q279" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S279" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U279" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z279" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB279" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC279" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN279" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO279" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP279" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.992378</v>
+      </c>
+      <c r="AW279" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX279" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY279" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M280" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N280" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O280" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q280" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S280" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U280" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z280" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB280" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC280" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN280" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO280" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP280" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.992378</v>
+      </c>
+      <c r="AW280" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX280" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY280" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M281" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N281" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O281" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q281" s="384" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="S281" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="U281" s="384" t="n">
+        <v>523.97</v>
+      </c>
+      <c r="Z281" s="384" t="n">
+        <v>3862.65</v>
+      </c>
+      <c r="AB281" s="387" t="n">
+        <v>0.248022</v>
+      </c>
+      <c r="AC281" s="387" t="n">
+        <v>2.11639</v>
+      </c>
+      <c r="AN281" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO281" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP281" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0.124011</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.992378</v>
+      </c>
+      <c r="AW281" s="384" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AX281" s="385" t="n">
+        <v>150</v>
+      </c>
+      <c r="AY281" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M282" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N282" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O282" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S282" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U282" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z282" s="384" t="n">
+        <v>-5568.03</v>
+      </c>
+      <c r="AB282" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC282" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN282" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO282" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP282" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW282" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX282" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY282" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M283" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N283" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O283" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S283" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U283" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z283" s="384" t="n">
+        <v>-5568.03</v>
+      </c>
+      <c r="AB283" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC283" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN283" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO283" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP283" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW283" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX283" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY283" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M284" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N284" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O284" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q284" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="S284" s="384" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U284" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z284" s="384" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB284" s="387" t="n">
+        <v>1.992378</v>
+      </c>
+      <c r="AC284" s="387" t="n">
+        <v>0.65773</v>
+      </c>
+      <c r="AN284" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO284" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP284" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX284" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M285" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N285" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O285" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S285" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U285" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z285" s="384" t="n">
+        <v>-5568.03</v>
+      </c>
+      <c r="AB285" s="387" t="n">
+        <v>1.667412</v>
+      </c>
+      <c r="AC285" s="387" t="n">
+        <v>0.64194</v>
+      </c>
+      <c r="AN285" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO285" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP285" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW285" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX285" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY285" s="385" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="382" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="M286" s="382" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N286" s="382" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O286" s="384" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q286" s="384" t="n">
+        <v>4795.43</v>
+      </c>
+      <c r="S286" s="384" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z286" s="384" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB286" s="387" t="n">
+        <v>2.526098</v>
+      </c>
+      <c r="AC286" s="387" t="n">
+        <v>0.46437</v>
+      </c>
+      <c r="AN286" s="385" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO286" s="385" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP286" s="385" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX286" s="385" t="n">
+        <v>4225.2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="382" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="M287" s="382" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N287" s="382" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O287" s="384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" s="384" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S287" s="384" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U287" s="384" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z287" s="384" t="n">
+        <v>-5568.03</v>
+      </c>
+      <c r="AB287" s="387" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC287" s="387" t="n">
+        <v>0.44697</v>
+      </c>
+      <c r="AN287" s="385" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO287" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP287" s="385" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW287" s="384" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX287" s="385" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY287" s="385" t="n">
+        <v>1596</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:CW247"/>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1750,6 +1750,11 @@
     <xf numFmtId="175" fontId="7" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68731,48 +68736,130 @@
       <c r="CV245" s="313" t="n"/>
     </row>
     <row r="246" ht="19.9" customFormat="1" customHeight="1" s="51">
-      <c r="A246" s="103" t="n"/>
-      <c r="B246" s="235" t="n"/>
-      <c r="C246" s="291" t="n"/>
-      <c r="D246" s="104" t="n"/>
-      <c r="E246" s="104" t="n"/>
-      <c r="F246" s="105" t="n"/>
-      <c r="G246" s="322" t="n"/>
-      <c r="H246" s="106" t="n"/>
-      <c r="I246" s="104" t="n"/>
-      <c r="J246" s="107" t="n"/>
-      <c r="K246" s="50" t="n"/>
-      <c r="L246" s="104" t="n"/>
-      <c r="M246" s="236" t="n"/>
-      <c r="N246" s="236" t="n"/>
-      <c r="O246" s="368" t="n"/>
+      <c r="A246" s="103" t="inlineStr">
+        <is>
+          <t>Casa do Pica-Pau</t>
+        </is>
+      </c>
+      <c r="B246" s="358" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="C246" s="291" t="inlineStr">
+        <is>
+          <t>Matriz</t>
+        </is>
+      </c>
+      <c r="D246" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goiânia </t>
+        </is>
+      </c>
+      <c r="E246" s="104" t="inlineStr">
+        <is>
+          <t>30/09/2022</t>
+        </is>
+      </c>
+      <c r="F246" s="105" t="inlineStr">
+        <is>
+          <t>19509</t>
+        </is>
+      </c>
+      <c r="G246" s="393" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H246" s="106">
+        <f>F77*G77</f>
+        <v/>
+      </c>
+      <c r="I246" s="104" t="inlineStr">
+        <is>
+          <t>Novembro/2022</t>
+        </is>
+      </c>
+      <c r="J246" s="107" t="inlineStr">
+        <is>
+          <t>3 Growatt de 50 KW</t>
+        </is>
+      </c>
+      <c r="K246" s="50" t="inlineStr">
+        <is>
+          <t>272 de 550W</t>
+        </is>
+      </c>
+      <c r="L246" s="104" t="inlineStr"/>
+      <c r="M246" s="359" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N246" s="359" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O246" s="386" t="n">
+        <v>13128.42</v>
+      </c>
       <c r="P246" s="319" t="n"/>
-      <c r="Q246" s="368" t="n"/>
+      <c r="Q246" s="386" t="n">
+        <v>4795.43</v>
+      </c>
       <c r="R246" s="109" t="n"/>
-      <c r="S246" s="368" t="n"/>
+      <c r="S246" s="386" t="n">
+        <v>1.5</v>
+      </c>
       <c r="T246" s="319" t="n"/>
-      <c r="U246" s="368" t="n"/>
+      <c r="U246" s="386" t="n">
+        <v>9.25</v>
+      </c>
       <c r="V246" s="319" t="n"/>
       <c r="W246" s="319" t="n"/>
       <c r="X246" s="319" t="n"/>
       <c r="Y246" s="319" t="n"/>
-      <c r="Z246" s="368" t="n"/>
+      <c r="Z246" s="386" t="n">
+        <v>0</v>
+      </c>
       <c r="AA246" s="319" t="n"/>
-      <c r="AB246" s="369" t="n"/>
-      <c r="AC246" s="369" t="n"/>
+      <c r="AB246" s="387" t="n">
+        <v>0.53372</v>
+      </c>
+      <c r="AC246" s="387" t="n">
+        <v>0.340357</v>
+      </c>
       <c r="AD246" s="126" t="n"/>
       <c r="AE246" s="126" t="n"/>
       <c r="AF246" s="126" t="n"/>
       <c r="AG246" s="126" t="n"/>
       <c r="AH246" s="126" t="n"/>
       <c r="AM246" s="362" t="n"/>
-      <c r="AN246" s="238" t="n"/>
-      <c r="AO246" s="238" t="n"/>
-      <c r="AP246" s="238" t="n"/>
+      <c r="AN246" s="363" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO246" s="363" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP246" s="363" t="n">
+        <v>2923.2</v>
+      </c>
       <c r="AR246" s="362" t="n"/>
-      <c r="AW246" s="367" t="n"/>
-      <c r="AX246" s="238" t="n"/>
-      <c r="AY246" s="238" t="n"/>
+      <c r="AS246" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW246" s="388" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX246" s="363" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AY246" s="363" t="n">
+        <v>0</v>
+      </c>
       <c r="BA246" s="362" t="n"/>
       <c r="BJ246" s="126" t="n"/>
       <c r="BK246" s="126" t="n"/>
@@ -68813,95 +68900,460 @@
       <c r="CV246" s="313" t="n"/>
     </row>
     <row r="247" ht="19.9" customHeight="1">
-      <c r="A247" s="92" t="n"/>
-      <c r="B247" s="256" t="n"/>
-      <c r="C247" s="92" t="n"/>
-      <c r="D247" s="93" t="n"/>
-      <c r="E247" s="93" t="n"/>
-      <c r="F247" s="94" t="n"/>
-      <c r="G247" s="308" t="n"/>
-      <c r="H247" s="95" t="n"/>
-      <c r="I247" s="93" t="n"/>
-      <c r="L247" s="93" t="n"/>
-      <c r="M247" s="257" t="n"/>
-      <c r="N247" s="257" t="n"/>
-      <c r="O247" s="367" t="n"/>
-      <c r="Q247" s="367" t="n"/>
+      <c r="A247" s="92" t="inlineStr">
+        <is>
+          <t>Casa do Pica-Pau</t>
+        </is>
+      </c>
+      <c r="B247" s="389" t="n">
+        <v>12084724</v>
+      </c>
+      <c r="C247" s="92" t="inlineStr">
+        <is>
+          <t>Matriz</t>
+        </is>
+      </c>
+      <c r="D247" s="93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goiânia </t>
+        </is>
+      </c>
+      <c r="E247" s="93" t="inlineStr">
+        <is>
+          <t>30/09/2022</t>
+        </is>
+      </c>
+      <c r="F247" s="94" t="inlineStr">
+        <is>
+          <t>19509</t>
+        </is>
+      </c>
+      <c r="G247" s="394" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H247" s="95">
+        <f>F77*G77</f>
+        <v/>
+      </c>
+      <c r="I247" s="93" t="inlineStr">
+        <is>
+          <t>Novembro/2022</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>3 Growatt de 50 KW</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>272 de 550W</t>
+        </is>
+      </c>
+      <c r="L247" s="93" t="inlineStr"/>
+      <c r="M247" s="390" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N247" s="390" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O247" s="388" t="n">
+        <v>13128.42</v>
+      </c>
+      <c r="Q247" s="388" t="n">
+        <v>4795.43</v>
+      </c>
       <c r="R247" s="131" t="n"/>
-      <c r="S247" s="365" t="n"/>
+      <c r="S247" s="391" t="n">
+        <v>1.5</v>
+      </c>
       <c r="T247" s="309" t="n"/>
-      <c r="U247" s="365" t="n"/>
+      <c r="U247" s="391" t="n">
+        <v>9.25</v>
+      </c>
       <c r="V247" s="309" t="n"/>
       <c r="W247" s="309" t="n"/>
       <c r="X247" s="309" t="n"/>
       <c r="Y247" s="309" t="n"/>
-      <c r="Z247" s="365" t="n"/>
+      <c r="Z247" s="391" t="n">
+        <v>0</v>
+      </c>
       <c r="AA247" s="309" t="n"/>
-      <c r="AB247" s="366" t="n"/>
-      <c r="AC247" s="366" t="n"/>
-      <c r="AN247" s="238" t="n"/>
-      <c r="AO247" s="238" t="n"/>
-      <c r="AP247" s="238" t="n"/>
-      <c r="AW247" s="367" t="n"/>
-      <c r="AX247" s="238" t="n"/>
-      <c r="AY247" s="238" t="n"/>
+      <c r="AB247" s="392" t="n">
+        <v>0.53372</v>
+      </c>
+      <c r="AC247" s="392" t="n">
+        <v>0.340357</v>
+      </c>
+      <c r="AN247" s="363" t="n">
+        <v>1937.96</v>
+      </c>
+      <c r="AO247" s="363" t="n">
+        <v>8681.4</v>
+      </c>
+      <c r="AP247" s="363" t="n">
+        <v>2923.2</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW247" s="388" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX247" s="363" t="n">
+        <v>4225.2</v>
+      </c>
+      <c r="AY247" s="363" t="n">
+        <v>0</v>
+      </c>
       <c r="CU247" s="370" t="n"/>
       <c r="CV247" s="370" t="n"/>
     </row>
     <row r="248" ht="19.9" customHeight="1">
-      <c r="B248" s="261" t="n"/>
-      <c r="H248" s="162" t="n"/>
-      <c r="M248" s="261" t="n"/>
-      <c r="N248" s="261" t="n"/>
-      <c r="O248" s="367" t="n"/>
-      <c r="Q248" s="367" t="n"/>
-      <c r="S248" s="367" t="n"/>
-      <c r="U248" s="367" t="n"/>
-      <c r="Z248" s="367" t="n"/>
-      <c r="AB248" s="366" t="n"/>
-      <c r="AC248" s="366" t="n"/>
-      <c r="AN248" s="238" t="n"/>
-      <c r="AO248" s="238" t="n"/>
-      <c r="AP248" s="238" t="n"/>
-      <c r="AW248" s="367" t="n"/>
-      <c r="AX248" s="238" t="n"/>
-      <c r="AY248" s="238" t="n"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Casa do Pica-Pau</t>
+        </is>
+      </c>
+      <c r="B248" s="395" t="n">
+        <v>10025013856</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Vianópolis</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Vianópolis</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Outubro/2022</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>17716</t>
+        </is>
+      </c>
+      <c r="G248" s="396" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H248" s="162">
+        <f>F109*G109</f>
+        <v/>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Outubro/2022</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>1 Growatt de 50 KW e 1 de 60 KW</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>247 de 550W</t>
+        </is>
+      </c>
+      <c r="M248" s="395" t="inlineStr">
+        <is>
+          <t>Abril/2024</t>
+        </is>
+      </c>
+      <c r="N248" s="395" t="inlineStr">
+        <is>
+          <t>01/03/2024 a 01/04/2024</t>
+        </is>
+      </c>
+      <c r="O248" s="388" t="n">
+        <v>2317.39</v>
+      </c>
+      <c r="Q248" s="388" t="n">
+        <v>959.09</v>
+      </c>
+      <c r="S248" s="388" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U248" s="388" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="Z248" s="388" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="392" t="n">
+        <v>0.53372</v>
+      </c>
+      <c r="AC248" s="392" t="n">
+        <v>0.340357</v>
+      </c>
+      <c r="AN248" s="363" t="n">
+        <v>340.63</v>
+      </c>
+      <c r="AO248" s="363" t="n">
+        <v>1314.87</v>
+      </c>
+      <c r="AP248" s="363" t="n">
+        <v>972.9299999999999</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>11681.28</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW248" s="388" t="n">
+        <v>340.63</v>
+      </c>
+      <c r="AX248" s="363" t="n">
+        <v>1314.87</v>
+      </c>
+      <c r="AY248" s="363" t="n">
+        <v>972.9299999999999</v>
+      </c>
     </row>
     <row r="249" ht="19.9" customHeight="1">
-      <c r="B249" s="261" t="n"/>
-      <c r="M249" s="261" t="n"/>
-      <c r="N249" s="261" t="n"/>
-      <c r="O249" s="367" t="n"/>
-      <c r="Q249" s="367" t="n"/>
-      <c r="S249" s="367" t="n"/>
-      <c r="U249" s="367" t="n"/>
-      <c r="Z249" s="367" t="n"/>
-      <c r="AB249" s="371" t="n"/>
-      <c r="AC249" s="371" t="n"/>
-      <c r="AN249" s="238" t="n"/>
-      <c r="AO249" s="238" t="n"/>
-      <c r="AP249" s="238" t="n"/>
-      <c r="AW249" s="367" t="n"/>
-      <c r="AX249" s="238" t="n"/>
-      <c r="AY249" s="238" t="n"/>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Grupo Rodar</t>
+        </is>
+      </c>
+      <c r="B249" s="395" t="n">
+        <v>21040540</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Norte Sul</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Anápolis</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Junho/2023</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>36000</t>
+        </is>
+      </c>
+      <c r="G249" s="396" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H249">
+        <f>F52*G52</f>
+        <v/>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Agosto/2023</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2 Growatt de 100 KW e 1 de 25 KW</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>547 de 555W</t>
+        </is>
+      </c>
+      <c r="M249" s="395" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N249" s="395" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O249" s="388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="388" t="n">
+        <v>4742.08</v>
+      </c>
+      <c r="S249" s="388" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="U249" s="388" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z249" s="388" t="n">
+        <v>-5568.03</v>
+      </c>
+      <c r="AB249" s="397" t="n">
+        <v>2.205566</v>
+      </c>
+      <c r="AC249" s="397" t="n">
+        <v>0.446968</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>120996816</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>221630192</v>
+      </c>
+      <c r="AN249" s="363" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AO249" s="363" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AP249" s="363" t="n">
+        <v>1596</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>12700.8</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW249" s="388" t="n">
+        <v>1987.23</v>
+      </c>
+      <c r="AX249" s="363" t="n">
+        <v>11823</v>
+      </c>
+      <c r="AY249" s="363" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="250" ht="19.9" customHeight="1">
-      <c r="B250" s="261" t="n"/>
-      <c r="M250" s="261" t="n"/>
-      <c r="N250" s="261" t="n"/>
-      <c r="O250" s="367" t="n"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Grupo Alucentro</t>
+        </is>
+      </c>
+      <c r="B250" s="395" t="n">
+        <v>13260479</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Alucentro Loja</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goiânia </t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Fevereiro/2022</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="G250" s="396" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H250">
+        <f>F45*G45</f>
+        <v/>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Outubro/2022</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>1 Sungrow de 50KW</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>95 de 590W</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>2023-08-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="M250" s="395" t="inlineStr">
+        <is>
+          <t>Março/2024</t>
+        </is>
+      </c>
+      <c r="N250" s="395" t="inlineStr">
+        <is>
+          <t>01/02/2024 a 01/03/2024</t>
+        </is>
+      </c>
+      <c r="O250" s="388" t="n">
+        <v>420.41</v>
+      </c>
       <c r="Q250" s="367" t="n"/>
       <c r="S250" s="367" t="n"/>
       <c r="U250" s="367" t="n"/>
       <c r="Z250" s="367" t="n"/>
-      <c r="AB250" s="371" t="n"/>
-      <c r="AC250" s="371" t="n"/>
-      <c r="AN250" s="238" t="n"/>
-      <c r="AO250" s="238" t="n"/>
-      <c r="AP250" s="238" t="n"/>
-      <c r="AW250" s="367" t="n"/>
-      <c r="AX250" s="238" t="n"/>
-      <c r="AY250" s="238" t="n"/>
+      <c r="AB250" s="397" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AC250" s="397" t="n">
+        <v>0.908296</v>
+      </c>
+      <c r="AN250" s="363" t="n">
+        <v>442.13</v>
+      </c>
+      <c r="AO250" s="363" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AP250" s="363" t="n">
+        <v>726.6</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>2461.2</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW250" s="388" t="n">
+        <v>154.85</v>
+      </c>
+      <c r="AX250" s="363" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AY250" s="363" t="n">
+        <v>726.6</v>
+      </c>
     </row>
     <row r="251" ht="19.9" customHeight="1">
       <c r="B251" s="261" t="n"/>
